--- a/Linux OS requirements for.xlsx
+++ b/Linux OS requirements for.xlsx
@@ -156,10 +156,10 @@
     <t>SQLLite</t>
   </si>
   <si>
-    <t>Local data base - library and command tools.</t>
-  </si>
-  <si>
     <t>head, tail, id, less, ps, top, vi</t>
+  </si>
+  <si>
+    <t>Local data base - library and command tools. SQLite may not get used afterall!</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="13" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -763,12 +763,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
